--- a/LogsCambios.xlsx
+++ b/LogsCambios.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PATO\UNIV\2019\SIP\Final 2020\Mantenimiento\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05C9B70-7CDD-4F0E-9852-A4635FB7BF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="21000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Fecha-Hora</t>
   </si>
@@ -39,12 +45,24 @@
   </si>
   <si>
     <t>Terminado</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>pato</t>
+  </si>
+  <si>
+    <t>login en general, todo bootstrap ahora</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +175,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Énfasis5" xfId="1" builtinId="47"/>
@@ -167,6 +186,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -215,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,9 +270,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,6 +322,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,10 +514,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -489,13 +547,30 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>44019</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
